--- a/pthread多线程.xlsx
+++ b/pthread多线程.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>线程和进程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,10 +430,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int  pthread_mutex_init ( pthread_mutex_t  * mutex, const pthread_mutexattr_t   *attr);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int  pthread_mutex_lock (  pthread_mutex_t  * mutex  );</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -581,7 +577,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>的位置卡主，直到这个线程执行完毕才往下走。</t>
+    <t>int  pthread_mutex_init ( pthread_mutex_t  * mutex , const pthread_mutexattr_t   *attr);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int  pthread_mutex_trylock (  pthread_mutex_t  * mutex  );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>的位置卡住，直到这个线程执行完毕才往下走。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1438,15 +1442,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>685798</xdr:colOff>
+      <xdr:colOff>285748</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>134814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>80596</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>212480</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1457,8 +1461,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="685798" y="6985487"/>
-          <a:ext cx="3960936" cy="4503128"/>
+          <a:off x="285748" y="6948852"/>
+          <a:ext cx="6125309" cy="6078417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1501,7 +1505,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="l" rtl="0">
+          <a:pPr algn="l" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
@@ -1513,24 +1517,11 @@
               <a:ea typeface="Tahoma"/>
               <a:cs typeface="Tahoma"/>
             </a:rPr>
-            <a:t>#include &lt;errno.h&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Tahoma"/>
-            <a:ea typeface="Tahoma"/>
-            <a:cs typeface="Tahoma"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l" rtl="0">
+            <a:t>#include &lt;stdio.h&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
@@ -1542,11 +1533,11 @@
               <a:ea typeface="Tahoma"/>
               <a:cs typeface="Tahoma"/>
             </a:rPr>
-            <a:t>void * thread1(void* arg)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l" rtl="0">
+            <a:t>#include &lt;errno.h&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
@@ -1558,11 +1549,11 @@
               <a:ea typeface="Tahoma"/>
               <a:cs typeface="Tahoma"/>
             </a:rPr>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l" rtl="0">
+            <a:t>#include &lt;string.h&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
@@ -1574,103 +1565,7 @@
               <a:ea typeface="Tahoma"/>
               <a:cs typeface="Tahoma"/>
             </a:rPr>
-            <a:t>   int ret = 100;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Tahoma"/>
-              <a:ea typeface="Tahoma"/>
-              <a:cs typeface="Tahoma"/>
-            </a:rPr>
-            <a:t>   unsigned int  id=0;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Tahoma"/>
-              <a:ea typeface="Tahoma"/>
-              <a:cs typeface="Tahoma"/>
-            </a:rPr>
-            <a:t>   id = pthread_self();</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Tahoma"/>
-              <a:ea typeface="Tahoma"/>
-              <a:cs typeface="Tahoma"/>
-            </a:rPr>
-            <a:t>   ret ++;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Tahoma"/>
-              <a:ea typeface="Tahoma"/>
-              <a:cs typeface="Tahoma"/>
-            </a:rPr>
-            <a:t>   printf("Thread1 is runing! ID:%u\n",id);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Tahoma"/>
-              <a:ea typeface="Tahoma"/>
-              <a:cs typeface="Tahoma"/>
-            </a:rPr>
-            <a:t>   pthread_exit((void *)&amp;ret);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Tahoma"/>
-              <a:ea typeface="Tahoma"/>
-              <a:cs typeface="Tahoma"/>
-            </a:rPr>
-            <a:t>}</a:t>
+            <a:t>#include &lt;unistd.h&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1699,7 +1594,7 @@
               <a:ea typeface="Tahoma"/>
               <a:cs typeface="Tahoma"/>
             </a:rPr>
-            <a:t>int main()</a:t>
+            <a:t>//int ret=100;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1715,7 +1610,7 @@
               <a:ea typeface="Tahoma"/>
               <a:cs typeface="Tahoma"/>
             </a:rPr>
-            <a:t>{</a:t>
+            <a:t>void * thread1(void* arg)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1731,7 +1626,7 @@
               <a:ea typeface="Tahoma"/>
               <a:cs typeface="Tahoma"/>
             </a:rPr>
-            <a:t>    pthread_t   thread1_id;</a:t>
+            <a:t>{</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1747,8 +1642,27 @@
               <a:ea typeface="Tahoma"/>
               <a:cs typeface="Tahoma"/>
             </a:rPr>
-            <a:t>    void * thread1_ret;</a:t>
-          </a:r>
+            <a:t>   static int ret=100;//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>线程的返回值应该是静态类型或全局的变量</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -1763,7 +1677,227 @@
               <a:ea typeface="Tahoma"/>
               <a:cs typeface="Tahoma"/>
             </a:rPr>
-            <a:t>    int retur=0;</a:t>
+            <a:t>   //int ret=100;//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>如果返回值为一般变量则线程返回时将被回收，导致无法获取变量中的值</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>   unsigned int  id=0;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>   id = pthread_self();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>   printf("Thread1 is runing! ID:%u\n",id);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>   ret++;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>   printf("the ret value is:%d\n",ret);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>   pthread_exit( (void *)(&amp;ret) );//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>终止线程返回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>ret</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>的值</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>}</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1792,7 +1926,7 @@
               <a:ea typeface="Tahoma"/>
               <a:cs typeface="Tahoma"/>
             </a:rPr>
-            <a:t>    retur = pthread_create(&amp;thread1_id, NULL, thread1, NULL);</a:t>
+            <a:t>int main()</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1808,7 +1942,7 @@
               <a:ea typeface="Tahoma"/>
               <a:cs typeface="Tahoma"/>
             </a:rPr>
-            <a:t>    if(retur==0)</a:t>
+            <a:t>{</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1824,7 +1958,7 @@
               <a:ea typeface="Tahoma"/>
               <a:cs typeface="Tahoma"/>
             </a:rPr>
-            <a:t>    printf("Create thread error: %d\n", strerror(rc2));</a:t>
+            <a:t>    pthread_t   thread1_id;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1840,8 +1974,49 @@
               <a:ea typeface="Tahoma"/>
               <a:cs typeface="Tahoma"/>
             </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
+            <a:t>    int * thread1_ret;  //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>保存进程</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>的返回值</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -1856,61 +2031,7 @@
               <a:ea typeface="Tahoma"/>
               <a:cs typeface="Tahoma"/>
             </a:rPr>
-            <a:t>    pthread_join(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>thread1_id , &amp;thread1_ret</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Tahoma"/>
-              <a:ea typeface="Tahoma"/>
-              <a:cs typeface="Tahoma"/>
-            </a:rPr>
-            <a:t>);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Tahoma"/>
-              <a:ea typeface="Tahoma"/>
-              <a:cs typeface="Tahoma"/>
-            </a:rPr>
-            <a:t>    printf("the thread1 return is:%d",*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>thread1_ret</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Tahoma"/>
-              <a:ea typeface="Tahoma"/>
-              <a:cs typeface="Tahoma"/>
-            </a:rPr>
-            <a:t>);</a:t>
+            <a:t>    int retur=0;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1939,7 +2060,7 @@
               <a:ea typeface="Tahoma"/>
               <a:cs typeface="Tahoma"/>
             </a:rPr>
-            <a:t>   retrun 0;</a:t>
+            <a:t>    retur = pthread_create(&amp;thread1_id, NULL, thread1, NULL);</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1955,8 +2076,225 @@
               <a:ea typeface="Tahoma"/>
               <a:cs typeface="Tahoma"/>
             </a:rPr>
+            <a:t>    if(retur&gt;0)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>    {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>       printf("Create thread error:%s\n", strerror(errno));</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>    pthread_join(thread1_id , (void **)&amp;thread1_ret);//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>将进程</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>的返回值传递给</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>* thread1_ret</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>这个指针变量</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>    printf("the thread1 return is:%d\n",*thread1_ret);//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>显示返回的值</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>    return 0;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
             <a:t>}</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3010,531 +3348,636 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>540729</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>48358</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>527540</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>70716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>212482</xdr:colOff>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>51289</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矩形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7414848" y="8716485"/>
+          <a:ext cx="945172" cy="163746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>105509</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>293078</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152589</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8360020" y="8751278"/>
+          <a:ext cx="197827" cy="47080"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>293078</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>168519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>375139</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>42498</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="矩形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8557847" y="8631115"/>
+          <a:ext cx="1459523" cy="240325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>返回当前线程的 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>号</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>234463</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>39943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>586155</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>36635</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="矩形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7121771" y="9052058"/>
+          <a:ext cx="1040422" cy="179865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>586155</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>129876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>101112</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>32239</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="3"/>
+          <a:endCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8162193" y="9141991"/>
+          <a:ext cx="203688" cy="85536"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>101112</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>13189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>578828</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>73269</xdr:rowOff>
+      <xdr:rowOff>51287</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="142" name="组合 141"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="矩形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="5361844" y="7595089"/>
-          <a:ext cx="3115407" cy="1856642"/>
-          <a:chOff x="819151" y="7521820"/>
-          <a:chExt cx="3115407" cy="1856642"/>
+          <a:off x="8365881" y="9025304"/>
+          <a:ext cx="1855178" cy="404445"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="矩形 18"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1128347" y="8027755"/>
-            <a:ext cx="945172" cy="163746"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
           <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="19" idx="3"/>
-            <a:endCxn id="21" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="2073519" y="8062548"/>
-            <a:ext cx="197827" cy="47080"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="矩形 20"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2271346" y="7942385"/>
-            <a:ext cx="1459523" cy="240325"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>终止当前线程，可以指定返回值，使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pthread_join</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>取得该值</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>218344</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>148380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>241790</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>139211</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="矩形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7105652" y="9893188"/>
+          <a:ext cx="712176" cy="174004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>241790</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>72535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>401517</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>52209</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接箭头连接符 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="3"/>
+          <a:endCxn id="27" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7817828" y="9817343"/>
+          <a:ext cx="159727" cy="162847"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>401517</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>483578</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>175844</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="矩形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7977555" y="9714034"/>
+          <a:ext cx="1459523" cy="206618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
           <a:noFill/>
-          <a:ln w="19050">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>返回当前线程的 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ID</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>号</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="矩形 21"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="835270" y="8363328"/>
-            <a:ext cx="1040422" cy="179865"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>线程标识符</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>319454</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>136281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>401516</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>149471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="矩形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1696916" y="8049358"/>
+          <a:ext cx="1459523" cy="196363"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
           <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="22" idx="3"/>
-            <a:endCxn id="24" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1875692" y="8453261"/>
-            <a:ext cx="203688" cy="85536"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="矩形 23"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2079380" y="8336574"/>
-            <a:ext cx="1855178" cy="404445"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>终止当前线程，可以指定返回值，使用</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>pthread_join</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>取得该值</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="矩形 24"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="819151" y="9204458"/>
-            <a:ext cx="712176" cy="174004"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="26" name="直接箭头连接符 25"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="25" idx="3"/>
-            <a:endCxn id="27" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="1531327" y="9128613"/>
-            <a:ext cx="159727" cy="162847"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="27" name="矩形 26"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1691054" y="9025304"/>
-            <a:ext cx="1459523" cy="206618"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>线程标识符</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="矩形 27"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2297723" y="7521820"/>
-            <a:ext cx="1459523" cy="196363"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>线程</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="800" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>1</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>所执行的程序</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>线程体</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -4262,7 +4705,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3055328" y="13574238"/>
+          <a:off x="3055328" y="4195776"/>
           <a:ext cx="337037" cy="193051"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5446,13 +5889,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>408842</xdr:colOff>
+      <xdr:colOff>533401</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>10644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>57148</xdr:colOff>
+      <xdr:colOff>181707</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>20522</xdr:rowOff>
     </xdr:to>
@@ -5463,7 +5906,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3163765" y="15038163"/>
+          <a:off x="3288324" y="5659702"/>
           <a:ext cx="337037" cy="193051"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5506,13 +5949,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>375870</xdr:colOff>
+      <xdr:colOff>500429</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>93789</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>577361</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>13189</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>10644</xdr:rowOff>
     </xdr:to>
@@ -5526,7 +5969,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="3181525" y="14887403"/>
+          <a:off x="3306084" y="5508942"/>
           <a:ext cx="100028" cy="201491"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5559,13 +6002,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5860</xdr:colOff>
+      <xdr:colOff>130419</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>64481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>57148</xdr:colOff>
+      <xdr:colOff>181707</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>93789</xdr:rowOff>
     </xdr:to>
@@ -5576,7 +6019,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2760783" y="14725654"/>
+          <a:off x="2885342" y="5347193"/>
           <a:ext cx="740019" cy="212481"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7989,8 +8432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8030,7 +8473,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -8041,7 +8484,7 @@
         <v>5</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -8055,14 +8498,14 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="F29" t="s">
         <v>49</v>
       </c>
-      <c r="F29" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="B30" s="3"/>
@@ -8075,25 +8518,25 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="B34" s="3"/>
       <c r="G34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="B35" s="3"/>
       <c r="G35" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -8231,8 +8674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8362,67 +8805,67 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="B23" s="3" t="s">
+    <row r="28" spans="1:7">
+      <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="5" t="s">
+      <c r="G28" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="G29" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="B28" s="3" t="s">
-        <v>32</v>
+    <row r="34" spans="1:7">
+      <c r="A34" s="5"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" s="3" t="s">
+        <v>31</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="G29" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="B31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="5" t="s">
+      <c r="G36" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="5"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="B36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="3" t="s">
+    <row r="38" spans="1:7">
+      <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="5" t="s">
+    <row r="41" spans="1:7">
+      <c r="B41" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="B41" s="3" t="s">
+      <c r="G41" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="54" spans="10:10" ht="15">

--- a/pthread多线程.xlsx
+++ b/pthread多线程.xlsx
@@ -1449,8 +1449,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>212480</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1462,7 +1462,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="285748" y="6948852"/>
-          <a:ext cx="6125309" cy="6078417"/>
+          <a:ext cx="6125309" cy="6510706"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1712,7 +1712,7 @@
               <a:ea typeface="Tahoma"/>
               <a:cs typeface="Tahoma"/>
             </a:rPr>
-            <a:t>   unsigned int  id=0;</a:t>
+            <a:t>   ret++;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1744,7 +1744,7 @@
               <a:ea typeface="Tahoma"/>
               <a:cs typeface="Tahoma"/>
             </a:rPr>
-            <a:t>   id = pthread_self();</a:t>
+            <a:t>   unsigned int  id=0;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1760,7 +1760,7 @@
               <a:ea typeface="Tahoma"/>
               <a:cs typeface="Tahoma"/>
             </a:rPr>
-            <a:t>   printf("Thread1 is runing! ID:%u\n",id);</a:t>
+            <a:t>   id = pthread_self();</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1776,7 +1776,7 @@
               <a:ea typeface="Tahoma"/>
               <a:cs typeface="Tahoma"/>
             </a:rPr>
-            <a:t>   ret++;</a:t>
+            <a:t>   printf("Thread1 is runing! ID:%u\n",id);</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1808,8 +1808,49 @@
               <a:ea typeface="Tahoma"/>
               <a:cs typeface="Tahoma"/>
             </a:rPr>
-            <a:t>   printf("the ret value is:%d\n",ret);</a:t>
-          </a:r>
+            <a:t>   printf("the xiancheng1 canshu value is:%d\n",*((int *)arg));//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>显示线程</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>参数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -1824,10 +1865,15 @@
               <a:ea typeface="Tahoma"/>
               <a:cs typeface="Tahoma"/>
             </a:rPr>
-            <a:t>   pthread_exit( (void *)(&amp;ret) );//</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>   printf("the xiancheng1 ret value is:%d\n",ret);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1835,10 +1881,10 @@
               <a:ea typeface="Tahoma"/>
               <a:cs typeface="Tahoma"/>
             </a:rPr>
-            <a:t>终止线程返回</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>   pthread_exit( (void *)(&amp;ret) );//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1846,10 +1892,10 @@
               <a:ea typeface="Tahoma"/>
               <a:cs typeface="Tahoma"/>
             </a:rPr>
-            <a:t>ret</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>终止线程返回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1857,7 +1903,75 @@
               <a:ea typeface="Tahoma"/>
               <a:cs typeface="Tahoma"/>
             </a:rPr>
+            <a:t>ret</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
             <a:t>的值</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>   //return  (void *)(&amp;ret); //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>return</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>可以达到终止线程的相同效果</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -2031,6 +2145,41 @@
               <a:ea typeface="Tahoma"/>
               <a:cs typeface="Tahoma"/>
             </a:rPr>
+            <a:t>    int  canshu=123;//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>传参初始化</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
             <a:t>    int retur=0;</a:t>
           </a:r>
         </a:p>
@@ -2060,7 +2209,7 @@
               <a:ea typeface="Tahoma"/>
               <a:cs typeface="Tahoma"/>
             </a:rPr>
-            <a:t>    retur = pthread_create(&amp;thread1_id, NULL, thread1, NULL);</a:t>
+            <a:t>    retur = pthread_create(&amp;thread1_id, NULL, thread1, (void*)&amp;canshu);</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3348,16 +3497,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>527540</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>70716</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>395654</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>19426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>51289</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600808</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>102576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3366,8 +3515,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7414848" y="8716485"/>
-          <a:ext cx="945172" cy="163746"/>
+          <a:off x="395654" y="9031541"/>
+          <a:ext cx="2271346" cy="449497"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3408,16 +3557,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>105509</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600808</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>32239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>293078</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>152589</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>146539</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>61002</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3429,8 +3578,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8360020" y="8751278"/>
-          <a:ext cx="197827" cy="47080"/>
+          <a:off x="2667000" y="9044354"/>
+          <a:ext cx="234462" cy="211936"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3461,16 +3610,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>293078</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>168519</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>146539</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>375139</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>42498</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3479,8 +3628,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8557847" y="8631115"/>
-          <a:ext cx="1459523" cy="240325"/>
+          <a:off x="2901462" y="8924191"/>
+          <a:ext cx="1459523" cy="240326"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3542,16 +3691,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>234463</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>39943</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>417636</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>164500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>586155</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>36635</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>80596</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>161192</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3560,8 +3709,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7121771" y="9052058"/>
-          <a:ext cx="1040422" cy="179865"/>
+          <a:off x="417636" y="9909308"/>
+          <a:ext cx="3106614" cy="179865"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3602,16 +3751,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>586155</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>129876</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>80596</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>39565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>101112</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>32239</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>548054</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>71260</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3622,9 +3771,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8162193" y="9141991"/>
-          <a:ext cx="203688" cy="85536"/>
+        <a:xfrm flipV="1">
+          <a:off x="3524250" y="9967546"/>
+          <a:ext cx="467458" cy="31695"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3655,16 +3804,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>101112</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>13189</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>548054</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>20515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>578828</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>51287</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>337040</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>58614</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3673,7 +3822,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8365881" y="9025304"/>
+          <a:off x="3991708" y="9765323"/>
           <a:ext cx="1855178" cy="404445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3739,16 +3888,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>218344</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>148380</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>454268</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>21980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>241790</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>139211</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>337038</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>168519</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3757,8 +3906,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7105652" y="9893188"/>
-          <a:ext cx="712176" cy="174004"/>
+          <a:off x="454268" y="11048999"/>
+          <a:ext cx="571501" cy="146539"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3799,16 +3948,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>241790</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>72535</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>337038</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>72536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>401517</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>52209</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>548055</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3820,8 +3969,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7817828" y="9817343"/>
-          <a:ext cx="159727" cy="162847"/>
+          <a:off x="1025769" y="10916382"/>
+          <a:ext cx="211017" cy="205887"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3852,16 +4001,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>401517</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>548055</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>483578</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>175844</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>630117</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>175845</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3870,7 +4019,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7977555" y="9714034"/>
+          <a:off x="1236786" y="10813073"/>
           <a:ext cx="1459523" cy="206618"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8432,8 +8581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8674,7 +8823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
